--- a/12_excel/daily_report.xlsx
+++ b/12_excel/daily_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atanoue/Downloads/llmdev/12_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54754FE-A937-714B-8E47-99372BA26783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B8C561-CA2B-0742-81E4-B79E20C260ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,39 +37,20 @@
     <t>improve</t>
   </si>
   <si>
-    <t>田之上明美</t>
-    <rPh sb="0" eb="3">
-      <t>タノウエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アケミ</t>
+    <t>Lesson12まで完了、Lesson 13の課題を検討中</t>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ケント</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Lesson11を完了、Lesson12の課題を提出してレビュー待ち、Lesson 13の途中まで勉強中</t>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイシュ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>マティ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OpenAI APIのツール呼出のやり方を学べた、Web検索連動チャットボットのソースコードを作成して動くものを作ることができた、LLMを活用してExcel操作の自動化を学ぶことができた</t>
+    <t>OpenAI APIのツール呼出のやり方を学べた、Web検索連動チャットボットのソースコードを作成して動くものを作ることができた、LLMを活用してExcel操作の自動化を学ぶことができた、スクレイピングができるようになった</t>
     <rPh sb="21" eb="22">
       <t>マナベ</t>
     </rPh>
@@ -91,7 +72,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>とても難しくなってきたので、一つ一つ理解をしていくのに骨が折れる。課題にだいぶ時間がかかってしまう。</t>
+    <t>とても難しくなってきたので、一つ一つ理解をしていくのに骨が折れる。課題にだいぶ時間がかかってしまう。この日報の投稿文をLLMを活用したExcel操作の自動化で作った。</t>
     <rPh sb="3" eb="4">
       <t>ムズカシク</t>
     </rPh>
@@ -112,6 +93,16 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田之上</t>
+    <rPh sb="0" eb="2">
+      <t>タノウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,7 +486,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -531,16 +522,16 @@
         <v>45922</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="I2" s="2"/>
     </row>
